--- a/electron/data/transactions.xlsx
+++ b/electron/data/transactions.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -421,143 +421,24 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2025-08-21</v>
+        <v>2025-09-03</v>
       </c>
       <c r="B2" t="str">
-        <v>MEBL</v>
+        <v>DCR</v>
       </c>
       <c r="C2" t="str">
         <v>Buy</v>
       </c>
       <c r="D2" t="str">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E2" t="str">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>2025-08-19</v>
-      </c>
-      <c r="B3" t="str">
-        <v>OGDC</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Buy</v>
-      </c>
-      <c r="D3" t="str">
-        <v>1</v>
-      </c>
-      <c r="E3" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>2025-09-03</v>
-      </c>
-      <c r="B4" t="str">
-        <v>MARI</v>
-      </c>
-      <c r="C4" t="str">
-        <v>Buy</v>
-      </c>
-      <c r="D4" t="str">
-        <v>100</v>
-      </c>
-      <c r="E4" t="str">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>2025-09-03</v>
-      </c>
-      <c r="B5" t="str">
-        <v>MEBL</v>
-      </c>
-      <c r="C5" t="str">
-        <v>Buy</v>
-      </c>
-      <c r="D5" t="str">
-        <v>10</v>
-      </c>
-      <c r="E5" t="str">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>2025-09-03</v>
-      </c>
-      <c r="B6" t="str">
-        <v>MARI</v>
-      </c>
-      <c r="C6" t="str">
-        <v>Sell</v>
-      </c>
-      <c r="D6" t="str">
-        <v>10</v>
-      </c>
-      <c r="E6" t="str">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>2025-09-03</v>
-      </c>
-      <c r="B7" t="str">
-        <v>MARI</v>
-      </c>
-      <c r="C7" t="str">
-        <v>Dividend</v>
-      </c>
-      <c r="D7" t="str">
-        <v>100</v>
-      </c>
-      <c r="E7" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>2025-09-03</v>
-      </c>
-      <c r="B8" t="str">
-        <v>DCR</v>
-      </c>
-      <c r="C8" t="str">
-        <v>Buy</v>
-      </c>
-      <c r="D8" t="str">
-        <v>10</v>
-      </c>
-      <c r="E8" t="str">
         <v>32</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>2025-09-04</v>
-      </c>
-      <c r="B9" t="str">
-        <v>OGDC</v>
-      </c>
-      <c r="C9" t="str">
-        <v>Buy</v>
-      </c>
-      <c r="D9" t="str">
-        <v>1</v>
-      </c>
-      <c r="E9" t="str">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/electron/data/transactions.xlsx
+++ b/electron/data/transactions.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -436,9 +436,26 @@
         <v>32</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>2025-09-04</v>
+      </c>
+      <c r="B3" t="str">
+        <v>MEBL</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Buy</v>
+      </c>
+      <c r="D3" t="str">
+        <v>10</v>
+      </c>
+      <c r="E3" t="str">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/electron/data/transactions.xlsx
+++ b/electron/data/transactions.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -453,9 +453,60 @@
         <v>32</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>2025-09-04</v>
+      </c>
+      <c r="B4" t="str">
+        <v>DCR</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Sell</v>
+      </c>
+      <c r="D4" t="str">
+        <v>5</v>
+      </c>
+      <c r="E4" t="str">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>2025-09-04</v>
+      </c>
+      <c r="B5" t="str">
+        <v>MARI</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Buy</v>
+      </c>
+      <c r="D5" t="str">
+        <v>10</v>
+      </c>
+      <c r="E5" t="str">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>2025-09-05</v>
+      </c>
+      <c r="B6" t="str">
+        <v>dcr</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Dividend</v>
+      </c>
+      <c r="D6" t="str">
+        <v>5</v>
+      </c>
+      <c r="E6" t="str">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E6"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/electron/data/transactions.xlsx
+++ b/electron/data/transactions.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -421,92 +421,1129 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2025-09-03</v>
+        <v>2024-11-28</v>
       </c>
       <c r="B2" t="str">
-        <v>DCR</v>
+        <v>efert</v>
       </c>
       <c r="C2" t="str">
         <v>Buy</v>
       </c>
       <c r="D2" t="str">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="E2" t="str">
-        <v>32</v>
+        <v>190.55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2025-09-04</v>
+        <v>2024-11-28</v>
       </c>
       <c r="B3" t="str">
-        <v>MEBL</v>
+        <v>mebl</v>
       </c>
       <c r="C3" t="str">
         <v>Buy</v>
       </c>
       <c r="D3" t="str">
-        <v>10</v>
+        <v>174</v>
       </c>
       <c r="E3" t="str">
-        <v>32</v>
+        <v>229.77</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2025-09-04</v>
+        <v>2024-12-02</v>
       </c>
       <c r="B4" t="str">
-        <v>DCR</v>
+        <v>miietf</v>
       </c>
       <c r="C4" t="str">
-        <v>Sell</v>
+        <v>Buy</v>
       </c>
       <c r="D4" t="str">
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="E4" t="str">
-        <v>34</v>
+        <v>13.18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2025-09-04</v>
+        <v>2024-12-17</v>
       </c>
       <c r="B5" t="str">
-        <v>MARI</v>
+        <v>mebl</v>
       </c>
       <c r="C5" t="str">
         <v>Buy</v>
       </c>
       <c r="D5" t="str">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E5" t="str">
-        <v>700</v>
+        <v>226.50</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>2025-09-05</v>
+        <v>2024-12-19</v>
       </c>
       <c r="B6" t="str">
-        <v>dcr</v>
+        <v>mari</v>
       </c>
       <c r="C6" t="str">
-        <v>Dividend</v>
+        <v>Buy</v>
       </c>
       <c r="D6" t="str">
         <v>5</v>
       </c>
       <c r="E6" t="str">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>2024-12-19</v>
+      </c>
+      <c r="B7" t="str">
+        <v>mebl</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Buy</v>
+      </c>
+      <c r="D7" t="str">
+        <v>50</v>
+      </c>
+      <c r="E7" t="str">
+        <v>215.84</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>2024-12-19</v>
+      </c>
+      <c r="B8" t="str">
+        <v>mebl</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Buy</v>
+      </c>
+      <c r="D8" t="str">
+        <v>100</v>
+      </c>
+      <c r="E8" t="str">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>2024-12-20</v>
+      </c>
+      <c r="B9" t="str">
+        <v>mari</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Buy</v>
+      </c>
+      <c r="D9" t="str">
         <v>10</v>
+      </c>
+      <c r="E9" t="str">
+        <v>633.90</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>2024-12-20</v>
+      </c>
+      <c r="B10" t="str">
+        <v>mebl</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Buy</v>
+      </c>
+      <c r="D10" t="str">
+        <v>100</v>
+      </c>
+      <c r="E10" t="str">
+        <v>217.43</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>2024-12-23</v>
+      </c>
+      <c r="B11" t="str">
+        <v>mari</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Buy</v>
+      </c>
+      <c r="D11" t="str">
+        <v>15</v>
+      </c>
+      <c r="E11" t="str">
+        <v>712.95</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>2024-12-23</v>
+      </c>
+      <c r="B12" t="str">
+        <v>mebl</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Buy</v>
+      </c>
+      <c r="D12" t="str">
+        <v>6</v>
+      </c>
+      <c r="E12" t="str">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>2025-01-01</v>
+      </c>
+      <c r="B13" t="str">
+        <v>miietf</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Buy</v>
+      </c>
+      <c r="D13" t="str">
+        <v>500</v>
+      </c>
+      <c r="E13" t="str">
+        <v>15.42</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>2025-01-09</v>
+      </c>
+      <c r="B14" t="str">
+        <v>mari</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Buy</v>
+      </c>
+      <c r="D14" t="str">
+        <v>3</v>
+      </c>
+      <c r="E14" t="str">
+        <v>675.75</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>2025-01-24</v>
+      </c>
+      <c r="B15" t="str">
+        <v>mari</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Buy</v>
+      </c>
+      <c r="D15" t="str">
+        <v>20</v>
+      </c>
+      <c r="E15" t="str">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>2025-01-27</v>
+      </c>
+      <c r="B16" t="str">
+        <v>mari</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Buy</v>
+      </c>
+      <c r="D16" t="str">
+        <v>10</v>
+      </c>
+      <c r="E16" t="str">
+        <v>535.10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>2025-01-29</v>
+      </c>
+      <c r="B17" t="str">
+        <v>mari</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Buy</v>
+      </c>
+      <c r="D17" t="str">
+        <v>20</v>
+      </c>
+      <c r="E17" t="str">
+        <v>525.96</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>2025-02-12</v>
+      </c>
+      <c r="B18" t="str">
+        <v>mari</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Buy</v>
+      </c>
+      <c r="D18" t="str">
+        <v>10</v>
+      </c>
+      <c r="E18" t="str">
+        <v>584.98</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>2025-02-28</v>
+      </c>
+      <c r="B19" t="str">
+        <v>dcr</v>
+      </c>
+      <c r="C19" t="str">
+        <v>Buy</v>
+      </c>
+      <c r="D19" t="str">
+        <v>100</v>
+      </c>
+      <c r="E19" t="str">
+        <v>23.03</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>2025-03-18</v>
+      </c>
+      <c r="B20" t="str">
+        <v>dcr</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Buy</v>
+      </c>
+      <c r="D20" t="str">
+        <v>100</v>
+      </c>
+      <c r="E20" t="str">
+        <v>24.84</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>2025-03-18</v>
+      </c>
+      <c r="B21" t="str">
+        <v>mznpetf</v>
+      </c>
+      <c r="C21" t="str">
+        <v>Buy</v>
+      </c>
+      <c r="D21" t="str">
+        <v>500</v>
+      </c>
+      <c r="E21" t="str">
+        <v>17.49</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>2025-03-26</v>
+      </c>
+      <c r="B22" t="str">
+        <v>dcr</v>
+      </c>
+      <c r="C22" t="str">
+        <v>Buy</v>
+      </c>
+      <c r="D22" t="str">
+        <v>80</v>
+      </c>
+      <c r="E22" t="str">
+        <v>25.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>2025-04-09</v>
+      </c>
+      <c r="B23" t="str">
+        <v>efert</v>
+      </c>
+      <c r="C23" t="str">
+        <v>Buy</v>
+      </c>
+      <c r="D23" t="str">
+        <v>10</v>
+      </c>
+      <c r="E23" t="str">
+        <v>192.99</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>2025-04-29</v>
+      </c>
+      <c r="B24" t="str">
+        <v>dcr</v>
+      </c>
+      <c r="C24" t="str">
+        <v>Buy</v>
+      </c>
+      <c r="D24" t="str">
+        <v>5</v>
+      </c>
+      <c r="E24" t="str">
+        <v>25.83</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>2025-04-29</v>
+      </c>
+      <c r="B25" t="str">
+        <v>efert</v>
+      </c>
+      <c r="C25" t="str">
+        <v>Buy</v>
+      </c>
+      <c r="D25" t="str">
+        <v>1</v>
+      </c>
+      <c r="E25" t="str">
+        <v>170.62</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>2025-05-02</v>
+      </c>
+      <c r="B26" t="str">
+        <v>dcr</v>
+      </c>
+      <c r="C26" t="str">
+        <v>Buy</v>
+      </c>
+      <c r="D26" t="str">
+        <v>100</v>
+      </c>
+      <c r="E26" t="str">
+        <v>25.79</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>2025-05-05</v>
+      </c>
+      <c r="B27" t="str">
+        <v>dcr</v>
+      </c>
+      <c r="C27" t="str">
+        <v>Buy</v>
+      </c>
+      <c r="D27" t="str">
+        <v>15</v>
+      </c>
+      <c r="E27" t="str">
+        <v>25.89</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>2025-05-05</v>
+      </c>
+      <c r="B28" t="str">
+        <v>efert</v>
+      </c>
+      <c r="C28" t="str">
+        <v>Buy</v>
+      </c>
+      <c r="D28" t="str">
+        <v>24</v>
+      </c>
+      <c r="E28" t="str">
+        <v>168.86</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>2025-05-02</v>
+      </c>
+      <c r="B29" t="str">
+        <v>efert</v>
+      </c>
+      <c r="C29" t="str">
+        <v>Buy</v>
+      </c>
+      <c r="D29" t="str">
+        <v>10</v>
+      </c>
+      <c r="E29" t="str">
+        <v>169.90</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>2025-05-07</v>
+      </c>
+      <c r="B30" t="str">
+        <v>dcr</v>
+      </c>
+      <c r="C30" t="str">
+        <v>Buy</v>
+      </c>
+      <c r="D30" t="str">
+        <v>50</v>
+      </c>
+      <c r="E30" t="str">
+        <v>25.50</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>2025-05-07</v>
+      </c>
+      <c r="B31" t="str">
+        <v>efert</v>
+      </c>
+      <c r="C31" t="str">
+        <v>Buy</v>
+      </c>
+      <c r="D31" t="str">
+        <v>10</v>
+      </c>
+      <c r="E31" t="str">
+        <v>162.40</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>2025-05-07</v>
+      </c>
+      <c r="B32" t="str">
+        <v>mebl</v>
+      </c>
+      <c r="C32" t="str">
+        <v>Dividend</v>
+      </c>
+      <c r="D32" t="str">
+        <v>500</v>
+      </c>
+      <c r="E32" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>2025-05-09</v>
+      </c>
+      <c r="B33" t="str">
+        <v>efert</v>
+      </c>
+      <c r="C33" t="str">
+        <v>Buy</v>
+      </c>
+      <c r="D33" t="str">
+        <v>30</v>
+      </c>
+      <c r="E33" t="str">
+        <v>160.79</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>2025-05-09</v>
+      </c>
+      <c r="B34" t="str">
+        <v>mari</v>
+      </c>
+      <c r="C34" t="str">
+        <v>Buy</v>
+      </c>
+      <c r="D34" t="str">
+        <v>5</v>
+      </c>
+      <c r="E34" t="str">
+        <v>562.02</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>2025-05-13</v>
+      </c>
+      <c r="B35" t="str">
+        <v>efert</v>
+      </c>
+      <c r="C35" t="str">
+        <v>Dividend</v>
+      </c>
+      <c r="D35" t="str">
+        <v>56</v>
+      </c>
+      <c r="E35" t="str">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>2025-05-26</v>
+      </c>
+      <c r="B36" t="str">
+        <v>dcr</v>
+      </c>
+      <c r="C36" t="str">
+        <v>Buy</v>
+      </c>
+      <c r="D36" t="str">
+        <v>100</v>
+      </c>
+      <c r="E36" t="str">
+        <v>26.78</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>2025-05-29</v>
+      </c>
+      <c r="B37" t="str">
+        <v>luck</v>
+      </c>
+      <c r="C37" t="str">
+        <v>Buy</v>
+      </c>
+      <c r="D37" t="str">
+        <v>1</v>
+      </c>
+      <c r="E37" t="str">
+        <v>338.08</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>2025-06-03</v>
+      </c>
+      <c r="B38" t="str">
+        <v>dcr</v>
+      </c>
+      <c r="C38" t="str">
+        <v>Buy</v>
+      </c>
+      <c r="D38" t="str">
+        <v>50</v>
+      </c>
+      <c r="E38" t="str">
+        <v>27.55</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>2025-06-30</v>
+      </c>
+      <c r="B39" t="str">
+        <v>miietf</v>
+      </c>
+      <c r="C39" t="str">
+        <v>Dividend</v>
+      </c>
+      <c r="D39" t="str">
+        <v>1000</v>
+      </c>
+      <c r="E39" t="str">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>2025-07-02</v>
+      </c>
+      <c r="B40" t="str">
+        <v>miietf</v>
+      </c>
+      <c r="C40" t="str">
+        <v>Buy</v>
+      </c>
+      <c r="D40" t="str">
+        <v>500</v>
+      </c>
+      <c r="E40" t="str">
+        <v>13.63</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>2025-07-07</v>
+      </c>
+      <c r="B41" t="str">
+        <v>sys</v>
+      </c>
+      <c r="C41" t="str">
+        <v>Buy</v>
+      </c>
+      <c r="D41" t="str">
+        <v>50</v>
+      </c>
+      <c r="E41" t="str">
+        <v>120.40</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>2025-07-09</v>
+      </c>
+      <c r="B42" t="str">
+        <v>sys</v>
+      </c>
+      <c r="C42" t="str">
+        <v>Buy</v>
+      </c>
+      <c r="D42" t="str">
+        <v>10</v>
+      </c>
+      <c r="E42" t="str">
+        <v>117.42</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>2025-07-09</v>
+      </c>
+      <c r="B43" t="str">
+        <v>mznpetf</v>
+      </c>
+      <c r="C43" t="str">
+        <v>Dividend</v>
+      </c>
+      <c r="D43" t="str">
+        <v>500</v>
+      </c>
+      <c r="E43" t="str">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>2025-07-10</v>
+      </c>
+      <c r="B44" t="str">
+        <v>dcr</v>
+      </c>
+      <c r="C44" t="str">
+        <v>Buy</v>
+      </c>
+      <c r="D44" t="str">
+        <v>50</v>
+      </c>
+      <c r="E44" t="str">
+        <v>27.18</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>2025-07-12</v>
+      </c>
+      <c r="B45" t="str">
+        <v>luck</v>
+      </c>
+      <c r="C45" t="str">
+        <v>Buy</v>
+      </c>
+      <c r="D45" t="str">
+        <v>5</v>
+      </c>
+      <c r="E45" t="str">
+        <v>357.49</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>2025-08-04</v>
+      </c>
+      <c r="B46" t="str">
+        <v>dcr</v>
+      </c>
+      <c r="C46" t="str">
+        <v>Dividend</v>
+      </c>
+      <c r="D46" t="str">
+        <v>650</v>
+      </c>
+      <c r="E46" t="str">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>2025-08-05</v>
+      </c>
+      <c r="B47" t="str">
+        <v>dcr</v>
+      </c>
+      <c r="C47" t="str">
+        <v>Buy</v>
+      </c>
+      <c r="D47" t="str">
+        <v>50</v>
+      </c>
+      <c r="E47" t="str">
+        <v>28.16</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>2025-08-05</v>
+      </c>
+      <c r="B48" t="str">
+        <v>haleon</v>
+      </c>
+      <c r="C48" t="str">
+        <v>Buy</v>
+      </c>
+      <c r="D48" t="str">
+        <v>1</v>
+      </c>
+      <c r="E48" t="str">
+        <v>842.50</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>2025-08-07</v>
+      </c>
+      <c r="B49" t="str">
+        <v>haleon</v>
+      </c>
+      <c r="C49" t="str">
+        <v>Buy</v>
+      </c>
+      <c r="D49" t="str">
+        <v>1</v>
+      </c>
+      <c r="E49" t="str">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>2025-08-12</v>
+      </c>
+      <c r="B50" t="str">
+        <v>haleon</v>
+      </c>
+      <c r="C50" t="str">
+        <v>Buy</v>
+      </c>
+      <c r="D50" t="str">
+        <v>1</v>
+      </c>
+      <c r="E50" t="str">
+        <v>823.50</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>2025-08-13</v>
+      </c>
+      <c r="B51" t="str">
+        <v>sazew</v>
+      </c>
+      <c r="C51" t="str">
+        <v>Buy</v>
+      </c>
+      <c r="D51" t="str">
+        <v>1</v>
+      </c>
+      <c r="E51" t="str">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>2025-08-13</v>
+      </c>
+      <c r="B52" t="str">
+        <v>sazew</v>
+      </c>
+      <c r="C52" t="str">
+        <v>Buy</v>
+      </c>
+      <c r="D52" t="str">
+        <v>1</v>
+      </c>
+      <c r="E52" t="str">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>2025-08-19</v>
+      </c>
+      <c r="B53" t="str">
+        <v>ogdc</v>
+      </c>
+      <c r="C53" t="str">
+        <v>Buy</v>
+      </c>
+      <c r="D53" t="str">
+        <v>1</v>
+      </c>
+      <c r="E53" t="str">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>2025-08-20</v>
+      </c>
+      <c r="B54" t="str">
+        <v>sazew</v>
+      </c>
+      <c r="C54" t="str">
+        <v>Buy</v>
+      </c>
+      <c r="D54" t="str">
+        <v>1</v>
+      </c>
+      <c r="E54" t="str">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>2025-08-21</v>
+      </c>
+      <c r="B55" t="str">
+        <v>sys</v>
+      </c>
+      <c r="C55" t="str">
+        <v>Buy</v>
+      </c>
+      <c r="D55" t="str">
+        <v>5</v>
+      </c>
+      <c r="E55" t="str">
+        <v>140.05</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>2025-08-21</v>
+      </c>
+      <c r="B56" t="str">
+        <v>luck</v>
+      </c>
+      <c r="C56" t="str">
+        <v>Buy</v>
+      </c>
+      <c r="D56" t="str">
+        <v>1</v>
+      </c>
+      <c r="E56" t="str">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>2025-08-21</v>
+      </c>
+      <c r="B57" t="str">
+        <v>luck</v>
+      </c>
+      <c r="C57" t="str">
+        <v>Buy</v>
+      </c>
+      <c r="D57" t="str">
+        <v>1</v>
+      </c>
+      <c r="E57" t="str">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>2025-08-21</v>
+      </c>
+      <c r="B58" t="str">
+        <v>mari</v>
+      </c>
+      <c r="C58" t="str">
+        <v>Buy</v>
+      </c>
+      <c r="D58" t="str">
+        <v>1</v>
+      </c>
+      <c r="E58" t="str">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>2025-08-21</v>
+      </c>
+      <c r="B59" t="str">
+        <v>efert</v>
+      </c>
+      <c r="C59" t="str">
+        <v>Dividend</v>
+      </c>
+      <c r="D59" t="str">
+        <v>130</v>
+      </c>
+      <c r="E59" t="str">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>2025-08-26</v>
+      </c>
+      <c r="B60" t="str">
+        <v>efert</v>
+      </c>
+      <c r="C60" t="str">
+        <v>Buy</v>
+      </c>
+      <c r="D60" t="str">
+        <v>5</v>
+      </c>
+      <c r="E60" t="str">
+        <v>205.45</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>2025-08-26</v>
+      </c>
+      <c r="B61" t="str">
+        <v>efert</v>
+      </c>
+      <c r="C61" t="str">
+        <v>Buy</v>
+      </c>
+      <c r="D61" t="str">
+        <v>2</v>
+      </c>
+      <c r="E61" t="str">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>2025-08-28</v>
+      </c>
+      <c r="B62" t="str">
+        <v>haleon</v>
+      </c>
+      <c r="C62" t="str">
+        <v>Buy</v>
+      </c>
+      <c r="D62" t="str">
+        <v>1</v>
+      </c>
+      <c r="E62" t="str">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>2025-09-02</v>
+      </c>
+      <c r="B63" t="str">
+        <v>mebl</v>
+      </c>
+      <c r="C63" t="str">
+        <v>Dividend</v>
+      </c>
+      <c r="D63" t="str">
+        <v>450</v>
+      </c>
+      <c r="E63" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>2025-09-12</v>
+      </c>
+      <c r="B64" t="str">
+        <v>efert</v>
+      </c>
+      <c r="C64" t="str">
+        <v>Buy</v>
+      </c>
+      <c r="D64" t="str">
+        <v>4</v>
+      </c>
+      <c r="E64" t="str">
+        <v>215.90</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>2025-09-12</v>
+      </c>
+      <c r="B65" t="str">
+        <v>sys</v>
+      </c>
+      <c r="C65" t="str">
+        <v>Buy</v>
+      </c>
+      <c r="D65" t="str">
+        <v>5</v>
+      </c>
+      <c r="E65" t="str">
+        <v>136.50</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>2025-09-15</v>
+      </c>
+      <c r="B66" t="str">
+        <v>pael</v>
+      </c>
+      <c r="C66" t="str">
+        <v>Buy</v>
+      </c>
+      <c r="D66" t="str">
+        <v>1</v>
+      </c>
+      <c r="E66" t="str">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>2025-09-10</v>
+      </c>
+      <c r="B67" t="str">
+        <v>mebl</v>
+      </c>
+      <c r="C67" t="str">
+        <v>Sell</v>
+      </c>
+      <c r="D67" t="str">
+        <v>50</v>
+      </c>
+      <c r="E67" t="str">
+        <v>402</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E67"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/electron/data/transactions.xlsx
+++ b/electron/data/transactions.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -1541,9 +1541,26 @@
         <v>402</v>
       </c>
     </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>2025-09-22</v>
+      </c>
+      <c r="B68" t="str">
+        <v>NESTLE</v>
+      </c>
+      <c r="C68" t="str">
+        <v>Buy</v>
+      </c>
+      <c r="D68" t="str">
+        <v>1</v>
+      </c>
+      <c r="E68" t="str">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E67"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E68"/>
   </ignoredErrors>
 </worksheet>
 </file>